--- a/results.xlsx
+++ b/results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="34">
   <si>
     <t>temp</t>
   </si>
@@ -50,9 +50,6 @@
     <t>nebul</t>
   </si>
   <si>
-    <t>traitement</t>
-  </si>
-  <si>
     <t>Hour</t>
   </si>
   <si>
@@ -80,13 +77,46 @@
     <t>mape_3</t>
   </si>
   <si>
-    <t>MH1</t>
-  </si>
-  <si>
-    <t>MH2(bs)</t>
-  </si>
-  <si>
     <t>.</t>
+  </si>
+  <si>
+    <t>mape_4</t>
+  </si>
+  <si>
+    <t>mape_5</t>
+  </si>
+  <si>
+    <t>mape_6</t>
+  </si>
+  <si>
+    <t>mape_7</t>
+  </si>
+  <si>
+    <t>mape_8</t>
+  </si>
+  <si>
+    <t>trait_na</t>
+  </si>
+  <si>
+    <t>trait_scale</t>
+  </si>
+  <si>
+    <t>month_hour</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>weekend</t>
+  </si>
+  <si>
+    <t>evening</t>
+  </si>
+  <si>
+    <t>rose_wt</t>
+  </si>
+  <si>
+    <t>wt_n/e/s/w</t>
   </si>
 </sst>
 </file>
@@ -128,7 +158,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -151,21 +181,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,72 +521,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="5" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="4">
+        <v>9.56</v>
+      </c>
+      <c r="D2" s="4">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="6">
-        <v>9.56</v>
-      </c>
-      <c r="C2" s="6">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="6">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4">
         <v>8.5500000000000007</v>
       </c>
-      <c r="C3" s="6">
+      <c r="D3" s="4">
         <v>8.2799999999999994</v>
       </c>
-      <c r="D3" s="6">
+      <c r="E3" s="4">
         <v>8.92</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="6">
-        <v>8.11</v>
-      </c>
-      <c r="C4" s="6">
-        <v>8.07</v>
-      </c>
-      <c r="D4" s="6">
-        <v>8.8699999999999992</v>
-      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="4">
+        <v>8.42</v>
+      </c>
+      <c r="D4" s="4">
+        <v>7.95</v>
+      </c>
+      <c r="E4" s="4">
+        <v>8.56</v>
+      </c>
+      <c r="F4" s="6">
+        <v>7.99</v>
+      </c>
+      <c r="G4" s="6">
+        <v>8.3040000000000003</v>
+      </c>
+      <c r="H4" s="6">
+        <v>8.9469999999999992</v>
+      </c>
+      <c r="I4" s="6">
+        <v>8.6639999999999997</v>
+      </c>
+      <c r="J4" s="6">
+        <v>8.5679999999999996</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -541,198 +655,537 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="M3" sqref="A3:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
-    <col min="4" max="5" width="6.42578125" customWidth="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="4" customWidth="1"/>
-    <col min="8" max="15" width="6.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" style="8" customWidth="1"/>
+    <col min="2" max="3" width="6.42578125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="8" style="8" customWidth="1"/>
+    <col min="5" max="5" width="4" style="8" customWidth="1"/>
+    <col min="6" max="11" width="6.42578125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="6.42578125" style="8" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" style="8" customWidth="1"/>
+    <col min="16" max="19" width="7.7109375" style="8" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="O1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="P1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S8" s="2"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="4"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="4"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
